--- a/Games/tetris/design.xlsx
+++ b/Games/tetris/design.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyFolder\Coding\Scratch\Games\tetris\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Scratch\Games\tetris\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -86,7 +86,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,7 +152,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -498,13 +498,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -586,6 +661,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -607,15 +688,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -631,7 +745,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -899,13 +1013,13 @@
       <selection activeCell="B1" sqref="B1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="10" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="50.1" customHeight="1">
       <c r="A1" s="3"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -936,115 +1050,115 @@
       </c>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="50.1" customHeight="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="50.1" customHeight="1">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="50.1" customHeight="1">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="50.1" customHeight="1">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="50.1" customHeight="1">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="50.1" customHeight="1">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="50.1" customHeight="1">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="50.1" customHeight="1">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="50.1" customHeight="1">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="50.1" customHeight="1">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="50.1" customHeight="1">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="50.1" customHeight="1">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="50.1" customHeight="1">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="50.1" customHeight="1">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="50.1" customHeight="1">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="50.1" customHeight="1">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="50.1" customHeight="1">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="50.1" customHeight="1">
       <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="50.1" customHeight="1">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1066,19 +1180,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="10" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="50.1" customHeight="1" thickBot="1">
       <c r="A1" s="3"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1108,8 +1222,12 @@
         <v>8</v>
       </c>
       <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+    </row>
+    <row r="2" spans="1:16" ht="50.1" customHeight="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1123,8 +1241,12 @@
       <c r="I2" s="15"/>
       <c r="J2" s="16"/>
       <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M2" s="37"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+    </row>
+    <row r="3" spans="1:16" ht="50.1" customHeight="1">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1138,8 +1260,12 @@
       <c r="I3" s="12"/>
       <c r="J3" s="18"/>
       <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M3" s="37"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+    </row>
+    <row r="4" spans="1:16" ht="50.1" customHeight="1">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1153,8 +1279,12 @@
       <c r="I4" s="12"/>
       <c r="J4" s="18"/>
       <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M4" s="37"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+    </row>
+    <row r="5" spans="1:16" ht="50.1" customHeight="1" thickBot="1">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1169,7 +1299,7 @@
       <c r="J5" s="19"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="50.1" customHeight="1">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1183,48 +1313,60 @@
       <c r="I6" s="12"/>
       <c r="J6" s="19"/>
       <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M6" s="42"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="38"/>
+    </row>
+    <row r="7" spans="1:16" ht="50.1" customHeight="1" thickBot="1">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="28" t="s">
+      <c r="D7" s="29"/>
+      <c r="E7" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="28" t="s">
+      <c r="F7" s="29"/>
+      <c r="G7" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="28" t="s">
+      <c r="H7" s="29"/>
+      <c r="I7" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="29"/>
+      <c r="J7" s="31"/>
       <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M7" s="17"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="18"/>
+    </row>
+    <row r="8" spans="1:16" ht="50.1" customHeight="1" thickBot="1">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="33"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="35"/>
       <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M8" s="17"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="18"/>
+    </row>
+    <row r="9" spans="1:16" ht="50.1" customHeight="1" thickBot="1">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1233,8 +1375,12 @@
       <c r="D9" s="15"/>
       <c r="E9" s="16"/>
       <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M9" s="40"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="41"/>
+    </row>
+    <row r="10" spans="1:16" ht="50.1" customHeight="1">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1243,8 +1389,12 @@
       <c r="D10" s="17"/>
       <c r="E10" s="18"/>
       <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M10" s="15"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="38"/>
+    </row>
+    <row r="11" spans="1:16" ht="50.1" customHeight="1" thickBot="1">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1253,8 +1403,12 @@
       <c r="D11" s="12"/>
       <c r="E11" s="19"/>
       <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M11" s="40"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="41"/>
+    </row>
+    <row r="12" spans="1:16" ht="50.1" customHeight="1">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1263,58 +1417,66 @@
       <c r="D12" s="20"/>
       <c r="E12" s="21"/>
       <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M12" s="42"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="38"/>
+    </row>
+    <row r="13" spans="1:16" ht="50.1" customHeight="1" thickBot="1">
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="34" t="s">
+      <c r="C13" s="28"/>
+      <c r="D13" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="35"/>
+      <c r="E13" s="28"/>
       <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M13" s="47"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="41"/>
+    </row>
+    <row r="14" spans="1:16" ht="50.1" customHeight="1">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="50.1" customHeight="1">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="50.1" customHeight="1">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="50.1" customHeight="1">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="50.1" customHeight="1">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="50.1" customHeight="1">
       <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="50.1" customHeight="1">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1329,13 +1491,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B8:J8"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B8:J8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
